--- a/VPrint2/KNOWHOW/Canon.xlsx
+++ b/VPrint2/KNOWHOW/Canon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>Digital IXUS</t>
   </si>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>Canon IXUS 500 HS / Canon PowerShot ELPH 520 HS  Price: £185/US$170/AU$260 Specs: 10.1MP, 3.2-inch LCD, 12x zoom (28-336mm equivalent)</t>
+  </si>
+  <si>
+    <t>10MP</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Canon PowerShot A640 10MP Digital Camera with 4x Optical Zoom</t>
+  </si>
+  <si>
+    <t>$629.00</t>
   </si>
 </sst>
 </file>
@@ -362,7 +374,7 @@
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,20 +395,6 @@
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
@@ -422,6 +420,25 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFB12704"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -452,36 +469,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -784,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -797,87 +817,96 @@
     <col min="4" max="4" width="128.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="12">
+        <v>185</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1044,10 +1073,10 @@
       <c r="B48" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="6">
         <v>434</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1058,10 +1087,10 @@
       <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="10">
         <v>709</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1140,82 +1169,88 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -1244,10 +1279,10 @@
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="8" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1316,17 +1351,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="13">
         <v>53.4</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1344,17 +1379,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:4" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="5">
         <v>97.96</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" t="s">
         <v>104</v>
       </c>
     </row>
